--- a/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/3.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/3.xlsx
@@ -49,15 +49,12 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -109,33 +106,33 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_equals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_equals__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_equals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
@@ -211,7 +208,7 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -223,12 +220,12 @@
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
@@ -256,7 +253,7 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -298,33 +295,33 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__4,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__3,num_of_unknowns__1,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__3,num_of_unknowns__1,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__4,num_of_unknowns__2,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__4,num_of_unknowns__2,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
@@ -346,21 +343,21 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
